--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il13-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il13-Il13ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Il13</t>
+  </si>
+  <si>
+    <t>Il13ra1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il13</t>
-  </si>
-  <si>
-    <t>Il13ra1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.687967</v>
       </c>
       <c r="I2">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.490130333333333</v>
+        <v>7.259676666666667</v>
       </c>
       <c r="N2">
-        <v>19.470391</v>
+        <v>21.77903</v>
       </c>
       <c r="O2">
-        <v>0.07425075126846777</v>
+        <v>0.0800851741186225</v>
       </c>
       <c r="P2">
-        <v>0.07641336284245376</v>
+        <v>0.08141203646611257</v>
       </c>
       <c r="Q2">
-        <v>1.488331831677444</v>
+        <v>1.664805992445555</v>
       </c>
       <c r="R2">
-        <v>13.394986485097</v>
+        <v>14.98325393201</v>
       </c>
       <c r="S2">
-        <v>0.05842945351902422</v>
+        <v>0.0800851741186225</v>
       </c>
       <c r="T2">
-        <v>0.0647287063888317</v>
+        <v>0.08141203646611257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.687967</v>
       </c>
       <c r="I3">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>99.667473</v>
       </c>
       <c r="O3">
-        <v>0.3800840336118431</v>
+        <v>0.3664941427220637</v>
       </c>
       <c r="P3">
-        <v>0.3911542802576211</v>
+        <v>0.3725662688540899</v>
       </c>
       <c r="Q3">
         <v>7.618659155265666</v>
@@ -638,10 +638,10 @@
         <v>68.567932397391</v>
       </c>
       <c r="S3">
-        <v>0.2990959956074894</v>
+        <v>0.3664941427220637</v>
       </c>
       <c r="T3">
-        <v>0.331341399170351</v>
+        <v>0.3725662688540899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.687967</v>
       </c>
       <c r="I4">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.63517166666667</v>
+        <v>27.342573</v>
       </c>
       <c r="N4">
-        <v>52.90551500000001</v>
+        <v>82.02771899999999</v>
       </c>
       <c r="O4">
-        <v>0.2017563096188048</v>
+        <v>0.301629786022079</v>
       </c>
       <c r="P4">
-        <v>0.2076326209402719</v>
+        <v>0.3066272304349659</v>
       </c>
       <c r="Q4">
-        <v>4.044138715333889</v>
+        <v>6.270262639696999</v>
       </c>
       <c r="R4">
-        <v>36.39724843800501</v>
+        <v>56.432363757273</v>
       </c>
       <c r="S4">
-        <v>0.1587662173601208</v>
+        <v>0.301629786022079</v>
       </c>
       <c r="T4">
-        <v>0.1758827312088869</v>
+        <v>0.3066272304349659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.687967</v>
       </c>
       <c r="I5">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.421352</v>
+        <v>4.432244</v>
       </c>
       <c r="N5">
-        <v>14.842704</v>
+        <v>8.864488</v>
       </c>
       <c r="O5">
-        <v>0.08490445231856091</v>
+        <v>0.04889433080484575</v>
       </c>
       <c r="P5">
-        <v>0.05825157421415624</v>
+        <v>0.03313627926998665</v>
       </c>
       <c r="Q5">
-        <v>1.701881757128</v>
+        <v>1.016412535982667</v>
       </c>
       <c r="R5">
-        <v>10.211290542768</v>
+        <v>6.098475215895999</v>
       </c>
       <c r="S5">
-        <v>0.06681307145793591</v>
+        <v>0.04889433080484575</v>
       </c>
       <c r="T5">
-        <v>0.04934410558228326</v>
+        <v>0.03313627926998665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.687967</v>
       </c>
       <c r="I6">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.63913333333333</v>
+        <v>18.39246133333333</v>
       </c>
       <c r="N6">
-        <v>67.9174</v>
+        <v>55.177384</v>
       </c>
       <c r="O6">
-        <v>0.2590044531823235</v>
+        <v>0.2028965663323893</v>
       </c>
       <c r="P6">
-        <v>0.266548161745497</v>
+        <v>0.2062581849748449</v>
       </c>
       <c r="Q6">
-        <v>5.191658880644444</v>
+        <v>4.217802148703111</v>
       </c>
       <c r="R6">
-        <v>46.7249299258</v>
+        <v>37.960219338328</v>
       </c>
       <c r="S6">
-        <v>0.2038159668407777</v>
+        <v>0.2028965663323893</v>
       </c>
       <c r="T6">
-        <v>0.2257892737384081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.062095</v>
-      </c>
-      <c r="H7">
-        <v>0.12419</v>
-      </c>
-      <c r="I7">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J7">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>6.490130333333333</v>
-      </c>
-      <c r="N7">
-        <v>19.470391</v>
-      </c>
-      <c r="O7">
-        <v>0.07425075126846777</v>
-      </c>
-      <c r="P7">
-        <v>0.07641336284245376</v>
-      </c>
-      <c r="Q7">
-        <v>0.4030046430483333</v>
-      </c>
-      <c r="R7">
-        <v>2.41802785829</v>
-      </c>
-      <c r="S7">
-        <v>0.01582129774944355</v>
-      </c>
-      <c r="T7">
-        <v>0.01168465645362206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.062095</v>
-      </c>
-      <c r="H8">
-        <v>0.12419</v>
-      </c>
-      <c r="I8">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J8">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>33.222491</v>
-      </c>
-      <c r="N8">
-        <v>99.667473</v>
-      </c>
-      <c r="O8">
-        <v>0.3800840336118431</v>
-      </c>
-      <c r="P8">
-        <v>0.3911542802576211</v>
-      </c>
-      <c r="Q8">
-        <v>2.062950578645</v>
-      </c>
-      <c r="R8">
-        <v>12.37770347187</v>
-      </c>
-      <c r="S8">
-        <v>0.08098803800435365</v>
-      </c>
-      <c r="T8">
-        <v>0.05981288108727003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.062095</v>
-      </c>
-      <c r="H9">
-        <v>0.12419</v>
-      </c>
-      <c r="I9">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J9">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>17.63517166666667</v>
-      </c>
-      <c r="N9">
-        <v>52.90551500000001</v>
-      </c>
-      <c r="O9">
-        <v>0.2017563096188048</v>
-      </c>
-      <c r="P9">
-        <v>0.2076326209402719</v>
-      </c>
-      <c r="Q9">
-        <v>1.095055984641667</v>
-      </c>
-      <c r="R9">
-        <v>6.570335907850001</v>
-      </c>
-      <c r="S9">
-        <v>0.04299009225868407</v>
-      </c>
-      <c r="T9">
-        <v>0.03174988973138489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.062095</v>
-      </c>
-      <c r="H10">
-        <v>0.12419</v>
-      </c>
-      <c r="I10">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J10">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.421352</v>
-      </c>
-      <c r="N10">
-        <v>14.842704</v>
-      </c>
-      <c r="O10">
-        <v>0.08490445231856091</v>
-      </c>
-      <c r="P10">
-        <v>0.05825157421415624</v>
-      </c>
-      <c r="Q10">
-        <v>0.46082885244</v>
-      </c>
-      <c r="R10">
-        <v>1.84331540976</v>
-      </c>
-      <c r="S10">
-        <v>0.01809138086062499</v>
-      </c>
-      <c r="T10">
-        <v>0.008907468631872979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.062095</v>
-      </c>
-      <c r="H11">
-        <v>0.12419</v>
-      </c>
-      <c r="I11">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J11">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>22.63913333333333</v>
-      </c>
-      <c r="N11">
-        <v>67.9174</v>
-      </c>
-      <c r="O11">
-        <v>0.2590044531823235</v>
-      </c>
-      <c r="P11">
-        <v>0.266548161745497</v>
-      </c>
-      <c r="Q11">
-        <v>1.405776984333333</v>
-      </c>
-      <c r="R11">
-        <v>8.434661906000001</v>
-      </c>
-      <c r="S11">
-        <v>0.05518848634154585</v>
-      </c>
-      <c r="T11">
-        <v>0.04075888800708886</v>
+        <v>0.2062581849748449</v>
       </c>
     </row>
   </sheetData>
